--- a/output/SIZE/rebalance/rebalance_20250930.xlsx
+++ b/output/SIZE/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.86%</t>
+          <t>4.85%</t>
         </is>
       </c>
     </row>
@@ -31392,13 +31392,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.319418236121165</v>
+        <v>0.3159102287780976</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01941823612116506</v>
+        <v>-0.01591022877809761</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31413,13 +31413,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07458459606703326</v>
+        <v>0.07640359723124718</v>
       </c>
       <c r="C3" t="n">
         <v>0.07392611551497155</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0006584805520617049</v>
+        <v>-0.002477481716275626</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -31434,13 +31434,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05378418893572236</v>
+        <v>0.05319326639627963</v>
       </c>
       <c r="C4" t="n">
         <v>0.05436783983641914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000583650900696786</v>
+        <v>0.001174573440139513</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -31455,13 +31455,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05116564454236408</v>
+        <v>0.05159605524698773</v>
       </c>
       <c r="C5" t="n">
         <v>0.0516929147642923</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0005272702219282221</v>
+        <v>9.685951730457193e-05</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31476,17 +31476,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03356320008453001</v>
+        <v>0.03489502321241281</v>
       </c>
       <c r="C6" t="n">
         <v>0.03377650485980784</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002133047752778325</v>
+        <v>-0.001118518352604972</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31497,17 +31497,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02653244820271042</v>
+        <v>0.02748811998431472</v>
       </c>
       <c r="C7" t="n">
         <v>0.02745388784627881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009214396435683891</v>
+        <v>-3.423213803590425e-05</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31518,13 +31518,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02445525393941858</v>
+        <v>0.02553726854966897</v>
       </c>
       <c r="C8" t="n">
         <v>0.02605025069325789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001594996753839305</v>
+        <v>0.0005129821435889137</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31539,13 +31539,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02586771159282859</v>
+        <v>0.02656361959808863</v>
       </c>
       <c r="C9" t="n">
         <v>0.02538188706198705</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0004858245308415332</v>
+        <v>-0.001181732536101581</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31560,13 +31560,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02113155623165287</v>
+        <v>0.0209035417927322</v>
       </c>
       <c r="C10" t="n">
         <v>0.02118641634688103</v>
       </c>
       <c r="D10" t="n">
-        <v>5.486011522816067e-05</v>
+        <v>0.0002828745541488369</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31581,13 +31581,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0180276494018422</v>
+        <v>0.01849787762497334</v>
       </c>
       <c r="C11" t="n">
         <v>0.01777499229713453</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0002526571047076695</v>
+        <v>-0.0007228853278388146</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -31602,17 +31602,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01557939417329631</v>
+        <v>0.0154112044062184</v>
       </c>
       <c r="C12" t="n">
         <v>0.01545103778605641</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0001283563872399064</v>
+        <v>3.983337983800607e-05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31623,13 +31623,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01420560915825269</v>
+        <v>0.01404892827585893</v>
       </c>
       <c r="C13" t="n">
         <v>0.01509590067505112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0008902915167984284</v>
+        <v>0.001046972399192185</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31644,13 +31644,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01380263404682171</v>
+        <v>0.01365062378800136</v>
       </c>
       <c r="C14" t="n">
         <v>0.01437092098260553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0005682869357838127</v>
+        <v>0.0007202971946041678</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31665,17 +31665,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01408541711884374</v>
+        <v>0.01393292277204117</v>
       </c>
       <c r="C15" t="n">
         <v>0.01401774460099156</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.76725178521808e-05</v>
+        <v>8.482182895039846e-05</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31686,13 +31686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01313226469380195</v>
+        <v>0.01298920070987217</v>
       </c>
       <c r="C16" t="n">
         <v>0.01322021792106664</v>
       </c>
       <c r="D16" t="n">
-        <v>8.795322726468796e-05</v>
+        <v>0.0002310172111944665</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31707,13 +31707,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006202160721344835</v>
+        <v>0.006134767295829143</v>
       </c>
       <c r="C17" t="n">
         <v>0.01295159799445393</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0067494372731091</v>
+        <v>0.006816830698624791</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31728,13 +31728,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01270347640620196</v>
+        <v>0.01256570707421474</v>
       </c>
       <c r="C18" t="n">
         <v>0.01221583429035601</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0004876421158459508</v>
+        <v>-0.0003498727838587307</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31749,17 +31749,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01132660102536282</v>
+        <v>0.01173502495243309</v>
       </c>
       <c r="C19" t="n">
         <v>0.01138669084899582</v>
       </c>
       <c r="D19" t="n">
-        <v>6.008982363300483e-05</v>
+        <v>-0.0003483341034372714</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31770,13 +31770,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01021451172641009</v>
+        <v>0.01010418076834881</v>
       </c>
       <c r="C20" t="n">
         <v>0.0109518991064676</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0007373873800575123</v>
+        <v>0.0008477183381187942</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31791,13 +31791,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0112923912241801</v>
+        <v>0.01116996984641459</v>
       </c>
       <c r="C21" t="n">
         <v>0.0109180765244671</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0003743146997129947</v>
+        <v>-0.0002518933219474891</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31812,13 +31812,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01102161308536592</v>
+        <v>0.01090094003132783</v>
       </c>
       <c r="C22" t="n">
         <v>0.01073352287050783</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0002880902148580979</v>
+        <v>-0.000167417160820001</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31833,13 +31833,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01037499403160735</v>
+        <v>0.01026320000695619</v>
       </c>
       <c r="C23" t="n">
         <v>0.01052004845802638</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001450544264190341</v>
+        <v>0.0002568484510701904</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31854,13 +31854,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009993075750511051</v>
+        <v>0.009885212230003312</v>
       </c>
       <c r="C24" t="n">
         <v>0.01009628581832442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001032100678133637</v>
+        <v>0.0002110735883211028</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31875,13 +31875,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009900797419937539</v>
+        <v>0.009794531433040241</v>
       </c>
       <c r="C25" t="n">
         <v>0.009946780202235231</v>
       </c>
       <c r="D25" t="n">
-        <v>4.598278229769187e-05</v>
+        <v>0.0001522487691949896</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31896,13 +31896,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009508757024850694</v>
+        <v>0.009405072801295402</v>
       </c>
       <c r="C26" t="n">
         <v>0.009795068765580794</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0002863117407300997</v>
+        <v>0.0003899959642853917</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31917,13 +31917,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009354965743955536</v>
+        <v>0.009252741682450605</v>
       </c>
       <c r="C27" t="n">
         <v>0.009498263353967674</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001432976100121386</v>
+        <v>0.0002455216715170697</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -31938,13 +31938,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009379374628497628</v>
+        <v>0.009275800395456403</v>
       </c>
       <c r="C28" t="n">
         <v>0.00947914624240217</v>
       </c>
       <c r="D28" t="n">
-        <v>9.977161390454202e-05</v>
+        <v>0.0002033458469457676</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -31959,13 +31959,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009143327159814684</v>
+        <v>0.009044566584028919</v>
       </c>
       <c r="C29" t="n">
         <v>0.009473509145402088</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003301819855874039</v>
+        <v>0.0004289425613731683</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31980,13 +31980,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009231676423273546</v>
+        <v>0.009130430238034781</v>
       </c>
       <c r="C30" t="n">
         <v>0.009333562085095653</v>
       </c>
       <c r="D30" t="n">
-        <v>0.000101885661822107</v>
+        <v>0.0002031318470608716</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -32001,13 +32001,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008141192447274303</v>
+        <v>0.008052706088926295</v>
       </c>
       <c r="C31" t="n">
         <v>0.008636522786476569</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004953303392022657</v>
+        <v>0.0005838166975502736</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -32022,13 +32022,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007915392635690027</v>
+        <v>0.007828720511244693</v>
       </c>
       <c r="C32" t="n">
         <v>0.008552946696170974</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0006375540604809469</v>
+        <v>0.0007242261849262806</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -32043,17 +32043,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008082521955971705</v>
+        <v>0.008277542604269618</v>
       </c>
       <c r="C33" t="n">
         <v>0.008096832021512001</v>
       </c>
       <c r="D33" t="n">
-        <v>1.431006554029543e-05</v>
+        <v>-0.0001807105827576171</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32064,13 +32064,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00774335149254341</v>
+        <v>0.007659540361367139</v>
       </c>
       <c r="C34" t="n">
         <v>0.008037274866250244</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0002939233737068335</v>
+        <v>0.0003777345048831052</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -32085,13 +32085,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007899167736206331</v>
+        <v>0.007814634851331539</v>
       </c>
       <c r="C35" t="n">
         <v>0.007812036077420799</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.713165878553204e-05</v>
+        <v>-2.598773910740537e-06</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -32106,13 +32106,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.007829827837831897</v>
+        <v>0.007744399488336356</v>
       </c>
       <c r="C36" t="n">
         <v>0.007689245399288534</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0001405824385433633</v>
+        <v>-5.515408904782203e-05</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -32148,13 +32148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007648650811419873</v>
+        <v>0.007564472389542228</v>
       </c>
       <c r="C38" t="n">
         <v>0.007668167558331697</v>
       </c>
       <c r="D38" t="n">
-        <v>1.951674691182386e-05</v>
+        <v>0.0001036951687894694</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32169,13 +32169,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007608517437558278</v>
+        <v>0.007525394298311846</v>
       </c>
       <c r="C39" t="n">
         <v>0.007499789921850927</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0001087275157073513</v>
+        <v>-2.560437646091911e-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32211,17 +32211,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006966858755383339</v>
+        <v>0.006890649637666402</v>
       </c>
       <c r="C41" t="n">
         <v>0.006914022016190022</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.283673919331735e-05</v>
+        <v>2.337237852362024e-05</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -32232,13 +32232,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.006852121229222916</v>
+        <v>0.006776788519351736</v>
       </c>
       <c r="C42" t="n">
         <v>0.006878973978319934</v>
       </c>
       <c r="D42" t="n">
-        <v>2.685274909701788e-05</v>
+        <v>0.0001021854589681979</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -32253,13 +32253,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006335428291565981</v>
+        <v>0.006622809231992696</v>
       </c>
       <c r="C43" t="n">
         <v>0.006799564437970924</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0004641361464049424</v>
+        <v>0.0001767552059782273</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32274,13 +32274,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006483508556628917</v>
+        <v>0.006413053784670003</v>
       </c>
       <c r="C44" t="n">
         <v>0.006781672782275004</v>
       </c>
       <c r="D44" t="n">
-        <v>0.000298164225646087</v>
+        <v>0.0003686189976050015</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32295,13 +32295,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006866700082386478</v>
+        <v>0.006792345367224389</v>
       </c>
       <c r="C45" t="n">
         <v>0.006758144029579002</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0001085560528074755</v>
+        <v>-3.420133764538667e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32316,13 +32316,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.006701512542313845</v>
+        <v>0.006629625951807793</v>
       </c>
       <c r="C46" t="n">
         <v>0.006360851236660037</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0003406613056538077</v>
+        <v>-0.0002687747151477564</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -32337,13 +32337,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.00644036179758713</v>
+        <v>0.006370392506954619</v>
       </c>
       <c r="C47" t="n">
         <v>0.006318940645920281</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0001214211516668484</v>
+        <v>-5.145186103433768e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -32379,17 +32379,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.006058009748111144</v>
+        <v>0.005991226117804328</v>
       </c>
       <c r="C49" t="n">
         <v>0.006014537407915743</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.347234019540062e-05</v>
+        <v>2.331129011141474e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -32442,13 +32442,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005532672510782355</v>
+        <v>0.00547292764503209</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.005532672510782355</v>
+        <v>-0.00547292764503209</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32463,13 +32463,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005269501133262935</v>
+        <v>0.005212242834284057</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005269501133262935</v>
+        <v>-0.005212242834284057</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -32484,13 +32484,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005022489747814213</v>
+        <v>0.005161859919626612</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.005022489747814213</v>
+        <v>-0.005161859919626612</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -32505,13 +32505,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.005049195581981285</v>
+        <v>0.004994108255996696</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.005049195581981285</v>
+        <v>-0.004994108255996696</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -32526,13 +32526,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.004569490986865997</v>
+        <v>0.004520935927629914</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.004569490986865997</v>
+        <v>-0.004520935927629914</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>

--- a/output/SIZE/rebalance/rebalance_20250930.xlsx
+++ b/output/SIZE/rebalance/rebalance_20250930.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.85%</t>
+          <t>5.29%</t>
         </is>
       </c>
     </row>
@@ -31392,13 +31392,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3159102287780976</v>
+        <v>0.3249651134170474</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01591022877809761</v>
+        <v>-0.02496511341704744</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -31413,17 +31413,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07640359723124718</v>
+        <v>0.07345003816499689</v>
       </c>
       <c r="C3" t="n">
         <v>0.07392611551497155</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.002477481716275626</v>
+        <v>0.0004760773499746657</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31434,17 +31434,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05319326639627963</v>
+        <v>0.05493276348236685</v>
       </c>
       <c r="C4" t="n">
         <v>0.05436783983641914</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001174573440139513</v>
+        <v>-0.0005649236459477069</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31455,13 +31455,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05159605524698773</v>
+        <v>0.05122958380099409</v>
       </c>
       <c r="C5" t="n">
         <v>0.0516929147642923</v>
       </c>
       <c r="D5" t="n">
-        <v>9.685951730457193e-05</v>
+        <v>0.0004633309632982169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -31476,17 +31476,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03489502321241281</v>
+        <v>0.03252887125465033</v>
       </c>
       <c r="C6" t="n">
         <v>0.03377650485980784</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001118518352604972</v>
+        <v>0.001247633605157512</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31497,17 +31497,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02748811998431472</v>
+        <v>0.02581567548119511</v>
       </c>
       <c r="C7" t="n">
         <v>0.02745388784627881</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.423213803590425e-05</v>
+        <v>0.001638212365083703</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31518,13 +31518,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02553726854966897</v>
+        <v>0.02358544365945366</v>
       </c>
       <c r="C8" t="n">
         <v>0.02605025069325789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0005129821435889137</v>
+        <v>0.002464807033804223</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -31539,13 +31539,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02656361959808863</v>
+        <v>0.02541172128048451</v>
       </c>
       <c r="C9" t="n">
         <v>0.02538188706198705</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001181732536101581</v>
+        <v>-2.983421849745566e-05</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -31560,13 +31560,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0209035417927322</v>
+        <v>0.02039787668264478</v>
       </c>
       <c r="C10" t="n">
         <v>0.02118641634688103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002828745541488369</v>
+        <v>0.0007885396642362541</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -31581,17 +31581,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01849787762497334</v>
+        <v>0.0177234786132824</v>
       </c>
       <c r="C11" t="n">
         <v>0.01777499229713453</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0007228853278388146</v>
+        <v>5.151368385212726e-05</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31602,13 +31602,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0154112044062184</v>
+        <v>0.0152850182839181</v>
       </c>
       <c r="C12" t="n">
         <v>0.01545103778605641</v>
       </c>
       <c r="D12" t="n">
-        <v>3.983337983800607e-05</v>
+        <v>0.0001660195021383083</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -31623,13 +31623,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01404892827585893</v>
+        <v>0.01450897342610938</v>
       </c>
       <c r="C13" t="n">
         <v>0.01509590067505112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001046972399192185</v>
+        <v>0.0005869272489417415</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -31644,13 +31644,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01365062378800136</v>
+        <v>0.01391344093914817</v>
       </c>
       <c r="C14" t="n">
         <v>0.01437092098260553</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0007202971946041678</v>
+        <v>0.0004574800434573537</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -31665,17 +31665,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01393292277204117</v>
+        <v>0.01438621465621873</v>
       </c>
       <c r="C15" t="n">
         <v>0.01401774460099156</v>
       </c>
       <c r="D15" t="n">
-        <v>8.482182895039846e-05</v>
+        <v>-0.0003684700552271693</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31686,13 +31686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01298920070987217</v>
+        <v>0.01292791077335483</v>
       </c>
       <c r="C16" t="n">
         <v>0.01322021792106664</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0002310172111944665</v>
+        <v>0.0002923071477118101</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -31707,13 +31707,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006134767295829143</v>
+        <v>0.005977170610721648</v>
       </c>
       <c r="C17" t="n">
         <v>0.01295159799445393</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006816830698624791</v>
+        <v>0.006974427383732286</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -31728,13 +31728,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01256570707421474</v>
+        <v>0.01297476226070284</v>
       </c>
       <c r="C18" t="n">
         <v>0.01221583429035601</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0003498727838587307</v>
+        <v>-0.0007589279703468284</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -31749,17 +31749,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01173502495243309</v>
+        <v>0.01102013018120581</v>
       </c>
       <c r="C19" t="n">
         <v>0.01138669084899582</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0003483341034372714</v>
+        <v>0.0003665606677900092</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -31770,13 +31770,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01010418076834881</v>
+        <v>0.01043264512969294</v>
       </c>
       <c r="C20" t="n">
         <v>0.0109518991064676</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0008477183381187942</v>
+        <v>0.0005192539767746637</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -31791,13 +31791,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01116996984641459</v>
+        <v>0.01109666637940441</v>
       </c>
       <c r="C21" t="n">
         <v>0.0109180765244671</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0002518933219474891</v>
+        <v>-0.0001785898549373065</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -31812,13 +31812,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01090094003132783</v>
+        <v>0.01110771078699573</v>
       </c>
       <c r="C22" t="n">
         <v>0.01073352287050783</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.000167417160820001</v>
+        <v>-0.000374187916487901</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -31833,13 +31833,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01026320000695619</v>
+        <v>0.01024146720720678</v>
       </c>
       <c r="C23" t="n">
         <v>0.01052004845802638</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0002568484510701904</v>
+        <v>0.0002785812508196046</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -31854,13 +31854,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009885212230003312</v>
+        <v>0.009746728967809738</v>
       </c>
       <c r="C24" t="n">
         <v>0.01009628581832442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0002110735883211028</v>
+        <v>0.0003495568505146769</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -31875,13 +31875,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009794531433040241</v>
+        <v>0.009684953995121641</v>
       </c>
       <c r="C25" t="n">
         <v>0.009946780202235231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001522487691949896</v>
+        <v>0.0002618262071135899</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -31896,13 +31896,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009405072801295402</v>
+        <v>0.009559476606697261</v>
       </c>
       <c r="C26" t="n">
         <v>0.009795068765580794</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0003899959642853917</v>
+        <v>0.0002355921588835328</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -31917,17 +31917,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.009252741682450605</v>
+        <v>0.009554743331957842</v>
       </c>
       <c r="C27" t="n">
         <v>0.009498263353967674</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002455216715170697</v>
+        <v>-5.647997799016792e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31938,17 +31938,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.009275800395456403</v>
+        <v>0.00957967347421624</v>
       </c>
       <c r="C28" t="n">
         <v>0.00947914624240217</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002033458469457676</v>
+        <v>-0.0001005272318140692</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -31959,13 +31959,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009044566584028919</v>
+        <v>0.009072853056066558</v>
       </c>
       <c r="C29" t="n">
         <v>0.009473509145402088</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0004289425613731683</v>
+        <v>0.0004006560893355295</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -31980,17 +31980,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009130430238034781</v>
+        <v>0.009341314892385839</v>
       </c>
       <c r="C30" t="n">
         <v>0.009333562085095653</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0002031318470608716</v>
+        <v>-7.752807290185848e-06</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32001,13 +32001,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008052706088926295</v>
+        <v>0.008315049608817626</v>
       </c>
       <c r="C31" t="n">
         <v>0.008636522786476569</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0005838166975502736</v>
+        <v>0.0003214731776589423</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -32022,13 +32022,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007828720511244693</v>
+        <v>0.008004137236935759</v>
       </c>
       <c r="C32" t="n">
         <v>0.008552946696170974</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0007242261849262806</v>
+        <v>0.0005488094592352149</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -32043,17 +32043,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008277542604269618</v>
+        <v>0.007962909338330364</v>
       </c>
       <c r="C33" t="n">
         <v>0.008096832021512001</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0001807105827576171</v>
+        <v>0.0001339226831816361</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -32064,13 +32064,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.007659540361367139</v>
+        <v>0.007610084923363808</v>
       </c>
       <c r="C34" t="n">
         <v>0.008037274866250244</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0003777345048831052</v>
+        <v>0.0004271899428864362</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -32085,17 +32085,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007814634851331539</v>
+        <v>0.007711950963427785</v>
       </c>
       <c r="C35" t="n">
         <v>0.007812036077420799</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.598773910740537e-06</v>
+        <v>0.0001000851139930136</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -32106,13 +32106,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.007744399488336356</v>
+        <v>0.007903542203382451</v>
       </c>
       <c r="C36" t="n">
         <v>0.007689245399288534</v>
       </c>
       <c r="D36" t="n">
-        <v>-5.515408904782203e-05</v>
+        <v>-0.0002142968040939174</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -32148,13 +32148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.007564472389542228</v>
+        <v>0.007622114877678803</v>
       </c>
       <c r="C38" t="n">
         <v>0.007668167558331697</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0001036951687894694</v>
+        <v>4.605268065289384e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -32169,13 +32169,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.007525394298311846</v>
+        <v>0.007640493863648052</v>
       </c>
       <c r="C39" t="n">
         <v>0.007499789921850927</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.560437646091911e-05</v>
+        <v>-0.0001407039417971254</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -32211,13 +32211,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.006890649637666402</v>
+        <v>0.006759855846256438</v>
       </c>
       <c r="C41" t="n">
         <v>0.006914022016190022</v>
       </c>
       <c r="D41" t="n">
-        <v>2.337237852362024e-05</v>
+        <v>0.0001541661699335844</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -32232,17 +32232,17 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.006776788519351736</v>
+        <v>0.006931583875378094</v>
       </c>
       <c r="C42" t="n">
         <v>0.006878973978319934</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0001021854589681979</v>
+        <v>-5.260989705815986e-05</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32253,13 +32253,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006622809231992696</v>
+        <v>0.006102815145325552</v>
       </c>
       <c r="C43" t="n">
         <v>0.006799564437970924</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001767552059782273</v>
+        <v>0.0006967492926453715</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -32274,13 +32274,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006413053784670003</v>
+        <v>0.006466461800825685</v>
       </c>
       <c r="C44" t="n">
         <v>0.006781672782275004</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0003686189976050015</v>
+        <v>0.0003152109814493192</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -32295,13 +32295,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006792345367224389</v>
+        <v>0.006835519743087721</v>
       </c>
       <c r="C45" t="n">
         <v>0.006758144029579002</v>
       </c>
       <c r="D45" t="n">
-        <v>-3.420133764538667e-05</v>
+        <v>-7.737571350871844e-05</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -32316,13 +32316,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.006629625951807793</v>
+        <v>0.00646810337611697</v>
       </c>
       <c r="C46" t="n">
         <v>0.006360851236660037</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0002687747151477564</v>
+        <v>-0.0001072521394569334</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -32337,13 +32337,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.006370392506954619</v>
+        <v>0.006346643101361088</v>
       </c>
       <c r="C47" t="n">
         <v>0.006318940645920281</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.145186103433768e-05</v>
+        <v>-2.77024554408067e-05</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -32379,17 +32379,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.005991226117804328</v>
+        <v>0.00610132467705444</v>
       </c>
       <c r="C49" t="n">
         <v>0.006014537407915743</v>
       </c>
       <c r="D49" t="n">
-        <v>2.331129011141474e-05</v>
+        <v>-8.678726913869707e-05</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -32442,13 +32442,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.00547292764503209</v>
+        <v>0.005449257178343289</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.00547292764503209</v>
+        <v>-0.005449257178343289</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -32463,13 +32463,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.005212242834284057</v>
+        <v>0.005103808902128538</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.005212242834284057</v>
+        <v>-0.005103808902128538</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -32484,13 +32484,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005161859919626612</v>
+        <v>0.004929669471523174</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.005161859919626612</v>
+        <v>-0.004929669471523174</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -32505,13 +32505,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.004994108255996696</v>
+        <v>0.005157022392076436</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.004994108255996696</v>
+        <v>-0.005157022392076436</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -32526,13 +32526,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.004520935927629914</v>
+        <v>0.004125230678887326</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.004520935927629914</v>
+        <v>-0.004125230678887326</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
